--- a/Casos de prueba/TC-4.1.xlsx
+++ b/Casos de prueba/TC-4.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\UADE\Testing de aplicaciones\TPO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\TestingAplicaciones-HDP-TPO\Casos de prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDA6DD3-9AC8-48B1-AA3B-D7621DC5DCC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11993D9-F9B2-4C1F-B1A3-0AB3E40216FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="3330" windowWidth="7500" windowHeight="7680" xr2:uid="{672E3777-D9CB-5347-A620-D5D404DE713E}"/>
+    <workbookView xWindow="4710" yWindow="4710" windowWidth="7500" windowHeight="7680" xr2:uid="{672E3777-D9CB-5347-A620-D5D404DE713E}"/>
   </bookViews>
   <sheets>
     <sheet name="TC-Modificar_cuenta" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -173,13 +173,16 @@
     <t>Cutomer is logged in</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>Defects Created</t>
   </si>
   <si>
     <t>DF-001: Home page is not displayed upon logging in</t>
+  </si>
+  <si>
+    <t>?????</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
 </sst>
 </file>
@@ -696,6 +699,40 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -711,40 +748,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
@@ -1065,11 +1068,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{742CE943-963C-7944-BBE3-CAD7A7E2BB08}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1081,10 +1087,10 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="41"/>
+      <c r="E1" s="53"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1094,8 +1100,8 @@
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1195,58 +1201,58 @@
         <v>3</v>
       </c>
       <c r="B10" s="17"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="53"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="40"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>4</v>
       </c>
       <c r="B11" s="17"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="53"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="40"/>
       <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D12" s="54"/>
-      <c r="E12" s="55"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="42"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D13" s="54"/>
-      <c r="E13" s="55"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D14" s="54"/>
-      <c r="E14" s="55"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="42"/>
     </row>
     <row r="16" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="48"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="47"/>
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="45"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="51"/>
-      <c r="G17" s="39" t="s">
+      <c r="A17" s="44"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="50"/>
+      <c r="G17" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
     </row>
     <row r="18" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
@@ -1262,22 +1268,22 @@
       <c r="E18" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="39" t="s">
+      <c r="G18" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39" t="s">
+      <c r="H18" s="51"/>
+      <c r="I18" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39" t="s">
+      <c r="J18" s="51"/>
+      <c r="K18" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39" t="s">
+      <c r="L18" s="51"/>
+      <c r="M18" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="N18" s="39"/>
+      <c r="N18" s="51"/>
     </row>
     <row r="19" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G19" s="24" t="s">
@@ -1404,7 +1410,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="32">
         <v>3</v>
       </c>
@@ -1426,7 +1432,7 @@
         <v>39</v>
       </c>
       <c r="J23" s="19" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K23" s="35" t="s">
         <v>39</v>
@@ -1488,19 +1494,19 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G28" s="37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" s="37"/>
       <c r="I28" s="37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J28" s="37"/>
       <c r="K28" s="37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L28" s="37"/>
       <c r="M28" s="37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N28" s="37"/>
     </row>
@@ -1508,9 +1514,11 @@
       <c r="G29" s="38"/>
       <c r="H29" s="38"/>
       <c r="I29" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="J29" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="J29" s="38"/>
       <c r="K29" s="38"/>
       <c r="L29" s="38"/>
       <c r="M29" s="38"/>
@@ -1558,6 +1566,8 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:E17"/>
     <mergeCell ref="G17:N17"/>
@@ -1565,8 +1575,6 @@
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="M18:N18"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Casos de prueba/TC-4.1.xlsx
+++ b/Casos de prueba/TC-4.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\TestingAplicaciones-HDP-TPO\Casos de prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11993D9-F9B2-4C1F-B1A3-0AB3E40216FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF102460-6BE4-4F38-9A51-3958E423DD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4710" yWindow="4710" windowWidth="7500" windowHeight="7680" xr2:uid="{672E3777-D9CB-5347-A620-D5D404DE713E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{672E3777-D9CB-5347-A620-D5D404DE713E}"/>
   </bookViews>
   <sheets>
     <sheet name="TC-Modificar_cuenta" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Test Scenario</t>
   </si>
   <si>
-    <t>Verify customer can login after entering valid userid and password</t>
-  </si>
-  <si>
     <t>Executions</t>
   </si>
   <si>
@@ -125,15 +122,6 @@
     <t>Regression 4</t>
   </si>
   <si>
-    <t>Tester: Sam Peters</t>
-  </si>
-  <si>
-    <t>Tester: Jane Williams</t>
-  </si>
-  <si>
-    <t>Tester:</t>
-  </si>
-  <si>
     <t>Step #</t>
   </si>
   <si>
@@ -161,18 +149,12 @@
     <t>Not executed</t>
   </si>
   <si>
-    <t>Enter Userid &amp; Password</t>
-  </si>
-  <si>
     <t>Credential can be entered</t>
   </si>
   <si>
     <t>Click Submit</t>
   </si>
   <si>
-    <t>Cutomer is logged in</t>
-  </si>
-  <si>
     <t>Defects Created</t>
   </si>
   <si>
@@ -182,7 +164,34 @@
     <t>?????</t>
   </si>
   <si>
-    <t>pass</t>
+    <t>Verify customer can login after entering valid user and not valid password</t>
+  </si>
+  <si>
+    <t>Enter valid User &amp; not valid Password</t>
+  </si>
+  <si>
+    <t>Cutomer cannot loggin</t>
+  </si>
+  <si>
+    <t>Tester: Camila Sturlesi</t>
+  </si>
+  <si>
+    <t>Tester: Martina Degui</t>
+  </si>
+  <si>
+    <t>Tester: Sebastian Deina</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Tester:  Lucas Argerich</t>
+  </si>
+  <si>
+    <t>Sign</t>
+  </si>
+  <si>
+    <t>"Invalid user/password"</t>
   </si>
 </sst>
 </file>
@@ -304,7 +313,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -577,6 +586,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -585,7 +618,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -654,99 +687,102 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1068,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{742CE943-963C-7944-BBE3-CAD7A7E2BB08}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1087,10 +1123,10 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="53"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1100,8 +1136,8 @@
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="55"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1201,380 +1237,394 @@
         <v>3</v>
       </c>
       <c r="B10" s="17"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="40"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>4</v>
       </c>
       <c r="B11" s="17"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="40"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="38"/>
       <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D12" s="41"/>
-      <c r="E12" s="42"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="40"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D13" s="41"/>
-      <c r="E13" s="42"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="40"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D14" s="41"/>
-      <c r="E14" s="42"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
     </row>
     <row r="16" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="46"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="52"/>
+      <c r="G17" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="50"/>
-      <c r="G17" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="55"/>
     </row>
     <row r="18" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="21" t="s">
         <v>21</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>22</v>
       </c>
       <c r="C18" s="22"/>
       <c r="D18" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="G18" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="51" t="s">
+      <c r="H18" s="55"/>
+      <c r="I18" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51" t="s">
+      <c r="J18" s="55"/>
+      <c r="K18" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51" t="s">
+      <c r="L18" s="55"/>
+      <c r="M18" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51" t="s">
+      <c r="N18" s="55"/>
+    </row>
+    <row r="19" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="55"/>
+      <c r="I19" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" s="54"/>
+      <c r="K19" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19" s="55"/>
+      <c r="M19" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="N19" s="55"/>
+    </row>
+    <row r="20" spans="1:14" ht="39" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="N18" s="51"/>
-    </row>
-    <row r="19" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G19" s="24" t="s">
+      <c r="B20" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="25"/>
-      <c r="I19" s="24" t="s">
+      <c r="C20" s="26"/>
+      <c r="D20" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="J19" s="25"/>
-      <c r="K19" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="L19" s="25"/>
-      <c r="M19" s="24" t="s">
+      <c r="E20" s="28"/>
+      <c r="G20" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="N19" s="25"/>
-    </row>
-    <row r="20" spans="1:14" ht="39" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="H20" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="I20" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="N20" s="29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="30">
+        <v>1</v>
+      </c>
+      <c r="B21" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="29" t="s">
+      <c r="C21" s="32"/>
+      <c r="D21" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="30"/>
-      <c r="G20" s="31" t="s">
+      <c r="E21" s="32"/>
+      <c r="G21" s="33" t="s">
         <v>35</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="J20" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="K20" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="L20" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="M20" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="N20" s="31" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="32">
-        <v>1</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="34"/>
-      <c r="G21" s="35" t="s">
-        <v>39</v>
       </c>
       <c r="H21" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="35" t="s">
-        <v>39</v>
+      <c r="I21" s="33" t="s">
+        <v>35</v>
       </c>
       <c r="J21" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="K21" s="35" t="s">
-        <v>39</v>
+      <c r="K21" s="33" t="s">
+        <v>35</v>
       </c>
       <c r="L21" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="M21" s="35"/>
+      <c r="M21" s="33" t="s">
+        <v>35</v>
+      </c>
       <c r="N21" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="32">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="51" x14ac:dyDescent="0.25">
+      <c r="A22" s="30">
         <v>2</v>
       </c>
-      <c r="B22" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="34"/>
-      <c r="G22" s="35" t="s">
-        <v>39</v>
+      <c r="B22" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="32"/>
+      <c r="D22" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="32"/>
+      <c r="G22" s="33" t="s">
+        <v>35</v>
       </c>
       <c r="H22" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="35" t="s">
-        <v>39</v>
+      <c r="I22" s="33" t="s">
+        <v>35</v>
       </c>
       <c r="J22" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="35" t="s">
-        <v>39</v>
+      <c r="K22" s="33" t="s">
+        <v>35</v>
       </c>
       <c r="L22" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="M22" s="35"/>
+      <c r="M22" s="33" t="s">
+        <v>35</v>
+      </c>
       <c r="N22" s="19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="32">
+      <c r="A23" s="30">
         <v>3</v>
       </c>
-      <c r="B23" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="33" t="s">
+      <c r="B23" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="32"/>
+      <c r="D23" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="34"/>
-      <c r="G23" s="35" t="s">
-        <v>39</v>
+      <c r="E23" s="32"/>
+      <c r="G23" s="33" t="s">
+        <v>35</v>
       </c>
       <c r="H23" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="35" t="s">
-        <v>39</v>
+      <c r="I23" s="33" t="s">
+        <v>35</v>
       </c>
       <c r="J23" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="K23" s="35" t="s">
-        <v>39</v>
+      <c r="K23" s="33" t="s">
+        <v>35</v>
       </c>
       <c r="L23" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="M23" s="35"/>
+      <c r="M23" s="33" t="s">
+        <v>35</v>
+      </c>
       <c r="N23" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="30">
+        <v>4</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="D24" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="32"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="17"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="30"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="32"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="17"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="30"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="32"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="17"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G28" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="N28" s="35"/>
+    </row>
+    <row r="29" spans="1:14" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="32">
-        <v>4</v>
-      </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="34"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="17"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="34"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="17"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="34"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="17"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G28" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="N28" s="37"/>
-    </row>
-    <row r="29" spans="1:14" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="J29" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
+      <c r="J29" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
     </row>
     <row r="33" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="13">
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:E17"/>
     <mergeCell ref="G17:N17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Casos de prueba/TC-4.1.xlsx
+++ b/Casos de prueba/TC-4.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\TestingAplicaciones-HDP-TPO\Casos de prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF102460-6BE4-4F38-9A51-3958E423DD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C1118B-09BF-4ACB-9A00-6C6AAEEB233F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{672E3777-D9CB-5347-A620-D5D404DE713E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Automation Status</t>
   </si>
   <si>
-    <t>Not Automated</t>
-  </si>
-  <si>
     <t>Regression 1</t>
   </si>
   <si>
@@ -158,12 +155,6 @@
     <t>Defects Created</t>
   </si>
   <si>
-    <t>DF-001: Home page is not displayed upon logging in</t>
-  </si>
-  <si>
-    <t>?????</t>
-  </si>
-  <si>
     <t>Verify customer can login after entering valid user and not valid password</t>
   </si>
   <si>
@@ -192,6 +183,9 @@
   </si>
   <si>
     <t>"Invalid user/password"</t>
+  </si>
+  <si>
+    <t>Automated</t>
   </si>
 </sst>
 </file>
@@ -736,6 +730,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -771,18 +777,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1104,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{742CE943-963C-7944-BBE3-CAD7A7E2BB08}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1123,10 +1117,10 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="42"/>
+      <c r="E1" s="46"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1136,8 +1130,8 @@
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1262,33 +1256,33 @@
       <c r="E14" s="40"/>
     </row>
     <row r="16" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="49"/>
+      <c r="B16" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="53"/>
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="46"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="52"/>
-      <c r="G17" s="53" t="s">
+      <c r="A17" s="50"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="G17" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="55"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="42"/>
     </row>
     <row r="18" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
@@ -1302,78 +1296,78 @@
         <v>22</v>
       </c>
       <c r="E18" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="53" t="s">
+      <c r="H18" s="42"/>
+      <c r="I18" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="55"/>
-      <c r="I18" s="53" t="s">
+      <c r="J18" s="42"/>
+      <c r="K18" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="55"/>
-      <c r="K18" s="53" t="s">
+      <c r="L18" s="42"/>
+      <c r="M18" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="L18" s="55"/>
-      <c r="M18" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="N18" s="55"/>
+      <c r="N18" s="42"/>
     </row>
     <row r="19" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G19" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" s="55"/>
-      <c r="I19" s="53" t="s">
+      <c r="G19" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="42"/>
+      <c r="I19" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" s="43"/>
+      <c r="K19" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="42"/>
+      <c r="M19" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="J19" s="54"/>
-      <c r="K19" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="L19" s="55"/>
-      <c r="M19" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="N19" s="55"/>
+      <c r="N19" s="42"/>
     </row>
     <row r="20" spans="1:14" ht="39" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="25" t="s">
         <v>28</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>29</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20" s="28"/>
       <c r="G20" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="H20" s="29" t="s">
-        <v>32</v>
-      </c>
       <c r="I20" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="29" t="s">
-        <v>32</v>
-      </c>
       <c r="K20" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="L20" s="29" t="s">
-        <v>32</v>
-      </c>
       <c r="M20" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="N20" s="29" t="s">
         <v>31</v>
-      </c>
-      <c r="N20" s="29" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -1381,36 +1375,36 @@
         <v>1</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="32"/>
       <c r="D21" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" s="32"/>
       <c r="G21" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H21" s="19" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J21" s="19" t="s">
         <v>15</v>
       </c>
       <c r="K21" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L21" s="19" t="s">
         <v>15</v>
       </c>
       <c r="M21" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="N21" s="19" t="s">
         <v>35</v>
-      </c>
-      <c r="N21" s="19" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="51" x14ac:dyDescent="0.25">
@@ -1418,36 +1412,36 @@
         <v>2</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C22" s="32"/>
       <c r="D22" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E22" s="32"/>
       <c r="G22" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H22" s="19" t="s">
         <v>15</v>
       </c>
       <c r="I22" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J22" s="19" t="s">
         <v>15</v>
       </c>
       <c r="K22" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L22" s="19" t="s">
         <v>15</v>
       </c>
       <c r="M22" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="N22" s="19" t="s">
         <v>35</v>
-      </c>
-      <c r="N22" s="19" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -1455,36 +1449,36 @@
         <v>3</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="32"/>
       <c r="D23" s="31" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E23" s="32"/>
       <c r="G23" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H23" s="19" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J23" s="19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K23" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L23" s="19" t="s">
         <v>15</v>
       </c>
       <c r="M23" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="N23" s="19" t="s">
         <v>35</v>
-      </c>
-      <c r="N23" s="19" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -1492,11 +1486,11 @@
         <v>4</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C24" s="32"/>
       <c r="D24" s="31" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E24" s="32"/>
       <c r="G24" s="34"/>
@@ -1540,31 +1534,27 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G28" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H28" s="35"/>
       <c r="I28" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J28" s="35"/>
       <c r="K28" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L28" s="35"/>
       <c r="M28" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N28" s="35"/>
     </row>
-    <row r="29" spans="1:14" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G29" s="36"/>
       <c r="H29" s="36"/>
-      <c r="I29" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="J29" s="36" t="s">
-        <v>41</v>
-      </c>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
       <c r="K29" s="36"/>
       <c r="L29" s="36"/>
       <c r="M29" s="36"/>
@@ -1612,6 +1602,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:E17"/>
+    <mergeCell ref="G17:N17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="K18:L18"/>
@@ -1620,11 +1615,6 @@
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="M19:N19"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:E17"/>
-    <mergeCell ref="G17:N17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Casos de prueba/TC-4.1.xlsx
+++ b/Casos de prueba/TC-4.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\TestingAplicaciones-HDP-TPO\Casos de prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C1118B-09BF-4ACB-9A00-6C6AAEEB233F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571EB878-649C-440D-B3FA-8D025B9AA085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{672E3777-D9CB-5347-A620-D5D404DE713E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -89,9 +89,6 @@
     <t>user created</t>
   </si>
   <si>
-    <t>Email: cjonson@uade.edu.ar</t>
-  </si>
-  <si>
     <t>Test Scenario</t>
   </si>
   <si>
@@ -173,9 +170,6 @@
     <t>Tester: Sebastian Deina</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>Tester:  Lucas Argerich</t>
   </si>
   <si>
@@ -186,13 +180,25 @@
   </si>
   <si>
     <t>Automated</t>
+  </si>
+  <si>
+    <t>email: sample@sample.com</t>
+  </si>
+  <si>
+    <t>password: hola</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Error: Invalid UserId / Password</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -283,6 +289,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -612,7 +625,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -730,6 +743,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1096,10 +1110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{742CE943-963C-7944-BBE3-CAD7A7E2BB08}">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29:J29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35:I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1117,10 +1131,10 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="46"/>
+      <c r="E1" s="47"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1130,8 +1144,8 @@
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1198,7 +1212,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>1</v>
       </c>
@@ -1209,10 +1223,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="33.75" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>2</v>
       </c>
@@ -1223,7 +1237,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1256,118 +1270,118 @@
       <c r="E14" s="40"/>
     </row>
     <row r="16" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="51"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="57"/>
+      <c r="G17" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="50"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="56"/>
-      <c r="G17" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="42"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="43"/>
     </row>
     <row r="18" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="21" t="s">
         <v>20</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>21</v>
       </c>
       <c r="C18" s="22"/>
       <c r="D18" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="41" t="s">
+      <c r="H18" s="43"/>
+      <c r="I18" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="42"/>
-      <c r="I18" s="41" t="s">
+      <c r="J18" s="43"/>
+      <c r="K18" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="42"/>
-      <c r="K18" s="41" t="s">
+      <c r="L18" s="43"/>
+      <c r="M18" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="42"/>
-      <c r="M18" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="N18" s="42"/>
+      <c r="N18" s="43"/>
     </row>
     <row r="19" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G19" s="41" t="s">
+      <c r="G19" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="43"/>
+      <c r="I19" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="42"/>
-      <c r="I19" s="41" t="s">
+      <c r="J19" s="44"/>
+      <c r="K19" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="43"/>
-      <c r="K19" s="44" t="s">
+      <c r="L19" s="43"/>
+      <c r="M19" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="L19" s="42"/>
-      <c r="M19" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="N19" s="42"/>
+      <c r="N19" s="43"/>
     </row>
     <row r="20" spans="1:14" ht="39" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="25" t="s">
         <v>27</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>28</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E20" s="28"/>
       <c r="G20" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="29" t="s">
-        <v>31</v>
-      </c>
       <c r="I20" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="29" t="s">
-        <v>31</v>
-      </c>
       <c r="K20" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="L20" s="29" t="s">
-        <v>31</v>
-      </c>
       <c r="M20" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="N20" s="29" t="s">
         <v>30</v>
-      </c>
-      <c r="N20" s="29" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -1375,36 +1389,36 @@
         <v>1</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="32"/>
       <c r="D21" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" s="32"/>
       <c r="G21" s="33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H21" s="19" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J21" s="19" t="s">
         <v>15</v>
       </c>
       <c r="K21" s="33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L21" s="19" t="s">
         <v>15</v>
       </c>
       <c r="M21" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="N21" s="19" t="s">
         <v>34</v>
-      </c>
-      <c r="N21" s="19" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="51" x14ac:dyDescent="0.25">
@@ -1412,36 +1426,36 @@
         <v>2</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="32"/>
       <c r="D22" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E22" s="32"/>
       <c r="G22" s="33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H22" s="19" t="s">
         <v>15</v>
       </c>
       <c r="I22" s="33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J22" s="19" t="s">
         <v>15</v>
       </c>
       <c r="K22" s="33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L22" s="19" t="s">
         <v>15</v>
       </c>
       <c r="M22" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="N22" s="19" t="s">
         <v>34</v>
-      </c>
-      <c r="N22" s="19" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -1449,36 +1463,36 @@
         <v>3</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="32"/>
       <c r="D23" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E23" s="32"/>
       <c r="G23" s="33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H23" s="19" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J23" s="19" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K23" s="33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L23" s="19" t="s">
         <v>15</v>
       </c>
       <c r="M23" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="N23" s="19" t="s">
         <v>34</v>
-      </c>
-      <c r="N23" s="19" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -1486,11 +1500,11 @@
         <v>4</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C24" s="32"/>
       <c r="D24" s="31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E24" s="32"/>
       <c r="G24" s="34"/>
@@ -1534,19 +1548,19 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G28" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H28" s="35"/>
       <c r="I28" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J28" s="35"/>
       <c r="K28" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L28" s="35"/>
       <c r="M28" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N28" s="35"/>
     </row>
@@ -1599,6 +1613,13 @@
       <c r="L33" s="36"/>
       <c r="M33" s="36"/>
       <c r="N33" s="36"/>
+    </row>
+    <row r="35" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G35" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1617,5 +1638,6 @@
     <mergeCell ref="M19:N19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="120" verticalDpi="72" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Casos de prueba/TC-4.1.xlsx
+++ b/Casos de prueba/TC-4.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\TestingAplicaciones-HDP-TPO\Casos de prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571EB878-649C-440D-B3FA-8D025B9AA085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289C9FAA-B499-4E00-A714-53D182C2132F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{672E3777-D9CB-5347-A620-D5D404DE713E}"/>
   </bookViews>
@@ -140,9 +140,6 @@
     <t>As Expected</t>
   </si>
   <si>
-    <t>Not executed</t>
-  </si>
-  <si>
     <t>Credential can be entered</t>
   </si>
   <si>
@@ -192,6 +189,9 @@
   </si>
   <si>
     <t>Error: Invalid UserId / Password</t>
+  </si>
+  <si>
+    <t>fail</t>
   </si>
 </sst>
 </file>
@@ -744,53 +744,53 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1112,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{742CE943-963C-7944-BBE3-CAD7A7E2BB08}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35:I35"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1131,10 +1131,10 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="47"/>
+      <c r="E1" s="43"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1144,8 +1144,8 @@
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="45"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1223,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1237,7 +1237,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1270,33 +1270,33 @@
       <c r="E14" s="40"/>
     </row>
     <row r="16" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="54"/>
+      <c r="B16" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="50"/>
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="51"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="57"/>
-      <c r="G17" s="42" t="s">
+      <c r="A17" s="47"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="53"/>
+      <c r="G17" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="43"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="56"/>
     </row>
     <row r="18" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
@@ -1310,42 +1310,42 @@
         <v>21</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="43"/>
-      <c r="I18" s="42" t="s">
+      <c r="H18" s="56"/>
+      <c r="I18" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="43"/>
-      <c r="K18" s="42" t="s">
+      <c r="J18" s="56"/>
+      <c r="K18" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="L18" s="43"/>
-      <c r="M18" s="42" t="s">
+      <c r="L18" s="56"/>
+      <c r="M18" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="N18" s="43"/>
+      <c r="N18" s="56"/>
     </row>
     <row r="19" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G19" s="42" t="s">
+      <c r="G19" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="56"/>
+      <c r="I19" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="43"/>
-      <c r="I19" s="42" t="s">
+      <c r="J19" s="55"/>
+      <c r="K19" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="J19" s="44"/>
-      <c r="K19" s="45" t="s">
+      <c r="L19" s="56"/>
+      <c r="M19" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="L19" s="43"/>
-      <c r="M19" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="N19" s="43"/>
+      <c r="N19" s="56"/>
     </row>
     <row r="20" spans="1:14" ht="39" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
@@ -1418,7 +1418,7 @@
         <v>33</v>
       </c>
       <c r="N21" s="19" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="51" x14ac:dyDescent="0.25">
@@ -1426,11 +1426,11 @@
         <v>2</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="32"/>
       <c r="D22" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" s="32"/>
       <c r="G22" s="33" t="s">
@@ -1455,7 +1455,7 @@
         <v>33</v>
       </c>
       <c r="N22" s="19" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -1463,11 +1463,11 @@
         <v>3</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="32"/>
       <c r="D23" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E23" s="32"/>
       <c r="G23" s="33" t="s">
@@ -1480,7 +1480,7 @@
         <v>33</v>
       </c>
       <c r="J23" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="33" t="s">
         <v>33</v>
@@ -1492,7 +1492,7 @@
         <v>33</v>
       </c>
       <c r="N23" s="19" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -1500,11 +1500,11 @@
         <v>4</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="32"/>
       <c r="D24" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E24" s="32"/>
       <c r="G24" s="34"/>
@@ -1548,19 +1548,19 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G28" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H28" s="35"/>
       <c r="I28" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J28" s="35"/>
       <c r="K28" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L28" s="35"/>
       <c r="M28" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N28" s="35"/>
     </row>
@@ -1616,18 +1616,13 @@
     </row>
     <row r="35" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G35" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H35" s="41"/>
       <c r="I35" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:E17"/>
-    <mergeCell ref="G17:N17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="K18:L18"/>
@@ -1636,6 +1631,11 @@
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="M19:N19"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:E17"/>
+    <mergeCell ref="G17:N17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="120" verticalDpi="72" r:id="rId1"/>
